--- a/analytics/raw_data/tbf_market_garden_data_2023_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2023_raw.xlsx
@@ -39,13 +39,13 @@
     <t>eggplant- black beauty</t>
   </si>
   <si>
-    <t>pepper- sweet- ca wonder</t>
+    <t>pepper- califonia wonder</t>
   </si>
   <si>
     <t>pepper- anaheim</t>
   </si>
   <si>
-    <t>pepper- jalapeno- early</t>
+    <t>pepper- jalapeno, early</t>
   </si>
   <si>
     <t>pepper- sweet banana</t>
@@ -72,7 +72,7 @@
     <t>sweet corn- country gentleman</t>
   </si>
   <si>
-    <t>sweet corn- ornamental- glas gm</t>
+    <t>corn- ornamental, glass gem</t>
   </si>
   <si>
     <t>sunflower- mammoth</t>
@@ -81,7 +81,7 @@
     <t>bean- fin de bagnol</t>
   </si>
   <si>
-    <t>pumpkin- ct field</t>
+    <t>pumpkin- connecticut field</t>
   </si>
   <si>
     <t>garlic- german extra hardy hardneck</t>

--- a/analytics/raw_data/tbf_market_garden_data_2023_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2023_raw.xlsx
@@ -11800,7 +11800,7 @@
         <v>121</v>
       </c>
       <c r="AT27" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="AU27" t="s">
         <v>126</v>
@@ -12194,7 +12194,7 @@
         <v>121</v>
       </c>
       <c r="AT28" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="AU28" t="s">
         <v>126</v>
